--- a/Noida (18th_Sep) Batch_Java_Full_Stack/MPT_MTT/Module 1/JavaFullStack-Module1_Java_SQL_JDBC_MTT-Assessment.xlsx
+++ b/Noida (18th_Sep) Batch_Java_Full_Stack/MPT_MTT/Module 1/JavaFullStack-Module1_Java_SQL_JDBC_MTT-Assessment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCQs\JAVA MTT(Banglore&amp;Bhuvneshwar,Noida)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\CG\JSpiders-CG-HTDProgram\Noida (18th_Sep) Batch_Java_Full_Stack\MPT_MTT\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="203">
   <si>
     <t>Skill</t>
   </si>
@@ -560,107 +560,6 @@
     <t>String() &amp; StringBuffer()</t>
   </si>
   <si>
-    <t>Which of these methods can randomize all elements in a list?</t>
-  </si>
-  <si>
-    <t>rand()</t>
-  </si>
-  <si>
-    <t>randomize()</t>
-  </si>
-  <si>
-    <t>shuffle()</t>
-  </si>
-  <si>
-    <t>ambigous()</t>
-  </si>
-  <si>
-    <t>Which of these interface is not a part of Java’s collection framework?</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SortedList </t>
-  </si>
-  <si>
-    <t>SortedMap</t>
-  </si>
-  <si>
-    <t>What is multithreaded programming?</t>
-  </si>
-  <si>
-    <t>It is a process in which two different processes run simultaneously.</t>
-  </si>
-  <si>
-    <t>It is a process in which two or more parts of same process run simultaneously.</t>
-  </si>
-  <si>
-    <t>It is a process in which many different process are able to access same information.</t>
-  </si>
-  <si>
-    <t>It is a process in which a single process can access information from many sources.</t>
-  </si>
-  <si>
-    <t>Which of these method waits for the thread to treminate?</t>
-  </si>
-  <si>
-    <t>Which is of the following methods is used to create an object of Pattern class?</t>
-  </si>
-  <si>
-    <t>matcher()</t>
-  </si>
-  <si>
-    <t>complie()</t>
-  </si>
-  <si>
-    <t>matches()</t>
-  </si>
-  <si>
-    <t>Patter pattern = new Pattern()</t>
-  </si>
-  <si>
-    <t>public class CharactersMatching {
- public static void main(String[] args) {
-  Pattern pat = Pattern.compile("[A-Za-z]{1,4}\\s[A-Za-z]{1,25}"); 
-  Matcher mat = pat.matcher("Chole Wllies");
-  System.out.println(mat.matches());
- }
-}
-What will be the output of the above code</t>
-  </si>
-  <si>
-    <t>true  </t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>Exception at runtime</t>
-  </si>
-  <si>
-    <t>public class TestJunit {
- @Test
- public void testSetup(){
-  String str = "JUnit Setup Test";
-  assertEquals("JUnit Setup Test", str);
- }
-}
-public class TestRunner {
- public static void main(String[] args) {
-  Result result = JUnitCore.runClasses(TestJunit.class);
-       for (Failure failure : result.getFailures()) {
-          System.out.println(failure.toString());
-       }
-       System.out.println("Result= "+result.wasSuccessful());
- }
-}
-What will be output</t>
-  </si>
-  <si>
     <t>Which of following annotation/s belong to Junit</t>
   </si>
   <si>
@@ -679,44 +578,172 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>Terminal operations mark the end of the stream and return the result.</t>
-  </si>
-  <si>
-    <t>Each intermediate operation is lazily executed and returns a stream as a result, hence various intermediate operations can be pipelined.</t>
-  </si>
-  <si>
-    <t>Streams don’t change the original data structure, they only provide the result as per the pipelined methods.</t>
-  </si>
-  <si>
-    <t>A stream is not a data structure instead it takes input from the Collections, Arrays or I/O channels.</t>
-  </si>
-  <si>
-    <t>What is true for Stream API?</t>
-  </si>
-  <si>
-    <t>A method within a class is only accessible by classes that are defined within the same package as the class of the method. Which one of the following is used to enforce such restriction?</t>
-  </si>
-  <si>
-    <t>Declare the method with the keyword public</t>
-  </si>
-  <si>
-    <t>Declare the method with the keyword private</t>
-  </si>
-  <si>
-    <t>Declare the method with the keyword protected</t>
-  </si>
-  <si>
-    <t>Do not declare the method with any accessibility modifiers</t>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>Which type of Statement can execute parameterized queries?</t>
+  </si>
+  <si>
+    <t>PreparedStatement</t>
+  </si>
+  <si>
+    <t>ParameterizedStatement and CallableStatement</t>
+  </si>
+  <si>
+    <t>ParameterizedStatement</t>
+  </si>
+  <si>
+    <t>All kinds of Statements (i.e. which implement a sub interface of Statement)</t>
+  </si>
+  <si>
+    <t>In order to transfer data between a database and an application written in the Java programming language, the JDBC API provides which of these methods?</t>
+  </si>
+  <si>
+    <t>Methods on the ResultSet class for retrieving SQL SELECT results as Java types</t>
+  </si>
+  <si>
+    <t>Methods on the PreparedStatement class for sending Java types as SQL statement parameters.</t>
+  </si>
+  <si>
+    <t>Methods on the CallableStatement class for retrieving SQL OUT parameters as Java types.</t>
+  </si>
+  <si>
+    <t>All mentioned above</t>
+  </si>
+  <si>
+    <t>Which is used to call the stored procedures and functions?</t>
+  </si>
+  <si>
+    <t>CallableStatement Interface</t>
+  </si>
+  <si>
+    <t>PreparedStatement Interface</t>
+  </si>
+  <si>
+    <t>Statement Interface</t>
+  </si>
+  <si>
+    <t>All the above</t>
+  </si>
+  <si>
+    <t>Which method is used for an SQL statement that is executed frequently?</t>
+  </si>
+  <si>
+    <t>prepareStatement()</t>
+  </si>
+  <si>
+    <t>prepareCall()</t>
+  </si>
+  <si>
+    <t>createStatement()</t>
+  </si>
+  <si>
+    <t>String query = "delete from users_info"
+     + "where user_id=? and password=?";
+   pstmt = con.prepareStatement(query);
+   pstmt.setInt(1, regno);
+   pstmt.setString(2,pass);
+   int count = pstmt.executeUpdate();
+   What will be output</t>
+  </si>
+  <si>
+    <t>count = 1</t>
+  </si>
+  <si>
+    <t>count = 0</t>
+  </si>
+  <si>
+    <t>com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: You have an error in your SQL syntax;</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>How can you change "Hansen" into "Nilsen" in the "LastName" column in the Persons table?</t>
+  </si>
+  <si>
+    <t>MODIFY PERSONS SET LASTNAME= ‘Hansen’ INTO LASTNAME=  ‘Nilsen’</t>
+  </si>
+  <si>
+    <t>MODIFY PERSONS SET LASTNAME= ‘Nilsen’ WHERE LASTNAME=  ‘Hansen’</t>
+  </si>
+  <si>
+    <t>UPDATE PERSONS SET LASTNAME= ‘Nilsen’ WHERE LASTNAME= ‘Hansen’</t>
+  </si>
+  <si>
+    <t>UPDATE PERSONS SET LASTNAME= ‘Hansen’ INTO LASTNAME=  ‘Nilsen’</t>
+  </si>
+  <si>
+    <t>If we want to grant  'select' privilege on Emp table  from Scott user to “User”, which one of following is correct statement ?</t>
+  </si>
+  <si>
+    <t>Grant select on SCOTT.EMP to USER;</t>
+  </si>
+  <si>
+    <t>Grant select to SCOTT.EMP to USER;</t>
+  </si>
+  <si>
+    <t>Grant select from SCOTT.EMP to USER;</t>
+  </si>
+  <si>
+    <t>None of above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of  the following is correct selects all Employees with a Emp_Add containing the pattern “er” ? </t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE '%er%';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE '_er_';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE 'er%';</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Emp WHERE Emp_Add LIKE '%er';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will be output of the following
+ SELECT ROUND(12345, -2), ROUND(12.345,2),ROUND(12.345,3) 
+FROM Dual;
+</t>
+  </si>
+  <si>
+    <t>12300 ; 1235 ; 123.45</t>
+  </si>
+  <si>
+    <t>12300 ; 1235 ; 1.2345</t>
+  </si>
+  <si>
+    <t>123 ; 34 ;  45</t>
+  </si>
+  <si>
+    <t>12300 ; 12.35 ; 12.345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM EMP E1,EMP E2 WHERE E1.JOB=E2.JOB;
+What type of joining we are using here ?
+</t>
+  </si>
+  <si>
+    <t>Outer Join</t>
+  </si>
+  <si>
+    <t>Inner Join</t>
+  </si>
+  <si>
+    <t>Natural Join</t>
+  </si>
+  <si>
+    <t>Self Join</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,6 +803,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -844,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,18 +915,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,6 +996,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1234,7 +1326,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A31" sqref="A31:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,28 +1346,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1283,28 +1375,28 @@
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>4</v>
       </c>
     </row>
@@ -1312,28 +1404,28 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>100</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1341,57 +1433,57 @@
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1399,28 +1491,28 @@
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="21">
         <v>2</v>
       </c>
     </row>
@@ -1428,39 +1520,39 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>16.34</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>16.466666666666601</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>16.466666666666601</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>16.466667000000001</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1475,27 +1567,27 @@
       <c r="G8" s="2">
         <v>32</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="b">
@@ -1507,256 +1599,256 @@
       <c r="H9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="33" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1773,13 +1865,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1802,13 +1894,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1831,13 +1923,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1860,13 +1952,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1884,18 +1976,18 @@
       <c r="H22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -1913,18 +2005,18 @@
       <c r="H23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1939,21 +2031,21 @@
       <c r="G24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1971,18 +2063,18 @@
       <c r="H25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2000,18 +2092,18 @@
       <c r="H26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2029,18 +2121,18 @@
       <c r="H27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2058,47 +2150,47 @@
       <c r="H28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="38" t="s">
+      <c r="C29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2120,293 +2212,293 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:9" s="34" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="29">
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="36" spans="1:9" s="47" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="54" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="51" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I32" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I33" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="36" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="C40" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="50">
         <v>4</v>
       </c>
     </row>
@@ -2421,22 +2513,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>177</v>
+        <v>148</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
